--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_3.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_1</t>
+          <t>model_11_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6232956101067413</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.219928851746629</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7786720090728138</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3178377543552834</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4169007837772369</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>1.028671264648438</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3181863129138947</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6943250298500061</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_2</t>
+          <t>model_11_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6299702729300248</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.285953037780745</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7643583343535937</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2924086831283591</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4095138907432556</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>1.059265613555908</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3387639820575714</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7202075123786926</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_0</t>
+          <t>model_11_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6474871658401227</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1790241365655909</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7759241120005854</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5668902979442729</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3901278078556061</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5463365912437439</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3221367299556732</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4408319294452667</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_3</t>
+          <t>model_11_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.658307599048628</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9711380965410294</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7317392652992061</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3466055180831192</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3781528174877167</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9133865833282471</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H5" t="n">
-        <v>0.38565793633461</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I5" t="n">
-        <v>0.665044367313385</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_4</t>
+          <t>model_11_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6623670703349094</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9097376805259054</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7135253232022725</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3492995391545408</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F6" t="n">
-        <v>0.373660147190094</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8849347829818726</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4118426740169525</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6623023152351379</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_5</t>
+          <t>model_11_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6735019217724323</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8139482605989379</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6970803231519151</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3614562473027796</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3613371849060059</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8405478596687317</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4354844093322754</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I7" t="n">
-        <v>0.649928867816925</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_24</t>
+          <t>model_11_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6840004399377201</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7715085389646341</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5937577846405112</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3030080423782396</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3497183918952942</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8208821415901184</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5840232968330383</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7094191908836365</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_23</t>
+          <t>model_11_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.684518191156583</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7678202627169555</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5964074122521095</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3056567143910167</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3491454124450684</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8191730976104736</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5802141427993774</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7067233324050903</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_22</t>
+          <t>model_11_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6845824368778446</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7668874634831351</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5968062265846499</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3061473226981801</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3490743041038513</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8187408447265625</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H10" t="n">
-        <v>0.579640805721283</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7062239646911621</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_21</t>
+          <t>model_11_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6849628903851465</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7645097654302555</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5999070798135174</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3087840008497117</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.348653256893158</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8176390528678894</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5751829743385315</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7035402655601501</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_20</t>
+          <t>model_11_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6852125289496107</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7609626486395824</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6003746974982014</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3099468306219947</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3483769595623016</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8159953951835632</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5745106339454651</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7023566961288452</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_19</t>
+          <t>model_11_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.685801209115172</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7554871556479206</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6039694098544497</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3136573105083102</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3477254509925842</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8134581446647644</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5693428516387939</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6985800266265869</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_18</t>
+          <t>model_11_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6866810082241579</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7474730624384804</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6080352783801317</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3182904903211069</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3467518389225006</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8097445964813232</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5634976029396057</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6938642859458923</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_17</t>
+          <t>model_11_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6874978678954813</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7394037690581505</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.612644375381909</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3233001205349247</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3458477854728699</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8060054183006287</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5568714737892151</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I15" t="n">
-        <v>0.688765287399292</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_16</t>
+          <t>model_11_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6882255373692132</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7313808792035736</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6178427446848435</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3286887062477272</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3450424671173096</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.802287757396698</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5493981838226318</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6832806468009949</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_15</t>
+          <t>model_11_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.688824584188243</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7231965382730841</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6236455389754717</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3345198212541579</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3443794846534729</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7984952926635742</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5410559773445129</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6773455142974854</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_14</t>
+          <t>model_11_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6890088249025432</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7190078778269435</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6244643095952935</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3360712998137592</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3441756069660187</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7965543270111084</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5398789048194885</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6757664084434509</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_13</t>
+          <t>model_11_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6890941681082252</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7118816417062359</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6309341626685547</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3420895041554723</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3440811336040497</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7932522296905518</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5305777192115784</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6696408987045288</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_12</t>
+          <t>model_11_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6892388588849154</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7072341814255969</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6318141699925524</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3437947075149118</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3439210057258606</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7910987138748169</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5293126106262207</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I20" t="n">
-        <v>0.667905330657959</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_11</t>
+          <t>model_11_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6909107116860446</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6724351106154169</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6378340616279683</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3561835382006469</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3420707881450653</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7749735116958618</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5206582546234131</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6552956700325012</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_10</t>
+          <t>model_11_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6911366900545342</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6669105727149789</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6386332963361022</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3580471081414569</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3418206870555878</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7724135518074036</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5195091962814331</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6533987522125244</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_9</t>
+          <t>model_11_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6921935301544717</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6506091429490535</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6396874231595899</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3626771193097198</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3406510353088379</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.764859676361084</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5179938077926636</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6486862301826477</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_8</t>
+          <t>model_11_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6939459929449852</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.6210896961281476</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6408467031866881</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3705600780334373</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3387115895748138</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7511809468269348</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5163272023200989</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I24" t="n">
-        <v>0.640662670135498</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_7</t>
+          <t>model_11_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6940317225545747</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.6153409006106698</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D25" t="n">
-        <v>0.641614962147139</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3724574088520458</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3386166989803314</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7485171556472778</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5152227282524109</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6387314796447754</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_11_3_6</t>
+          <t>model_11_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7033920807430331</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4770076283075841</v>
+        <v>-0.392566352411565</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6733401421925633</v>
+        <v>0.1826083512456151</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4268853365734465</v>
+        <v>0.1696148701025265</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3282575607299805</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6844162344932556</v>
+        <v>0.1700788140296936</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4696138799190521</v>
+        <v>1.013298749923706</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5833331346511841</v>
+        <v>0.566888153553009</v>
       </c>
     </row>
   </sheetData>
